--- a/excel/collective/zestawy_dla_uczniow/zestaw_022.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
   <si>
     <t>ZESTAW ZADAŃ NR 22 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Mikołaj Kowalczyk</t>
-  </si>
-  <si>
-    <t>Zuzanna Zawadzka</t>
-  </si>
-  <si>
-    <t>Filip Kamiński</t>
-  </si>
-  <si>
-    <t>Szymon Kaczmarek</t>
-  </si>
-  <si>
-    <t>Szymon Kwiatkowski</t>
+    <t>Anna Maciejewska</t>
+  </si>
+  <si>
+    <t>Julia Bednarska</t>
+  </si>
+  <si>
+    <t>Emilia Rogalska</t>
+  </si>
+  <si>
+    <t>Oliwia Sadowska</t>
+  </si>
+  <si>
+    <t>Jakub Kamiński</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,19 +160,31 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>5,40</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>20,10</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>2,00</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>2,90</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
   </si>
   <si>
     <t>4,40</t>
@@ -181,21 +193,6 @@
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>6,50</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>13,10</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>0,70</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,31 +217,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>3,70</t>
+    <t>1,98</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>24,57</t>
+    <t>1,80</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>29,51</t>
+    <t>11,09</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>2,70</t>
+    <t>1,75</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>11,93</t>
+    <t>2,49</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +250,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>11,77</t>
-  </si>
-  <si>
-    <t>28,42</t>
-  </si>
-  <si>
-    <t>15,77</t>
-  </si>
-  <si>
-    <t>19,96</t>
-  </si>
-  <si>
-    <t>17,41</t>
+    <t>22,44</t>
+  </si>
+  <si>
+    <t>28,55</t>
+  </si>
+  <si>
+    <t>9,66</t>
+  </si>
+  <si>
+    <t>19,25</t>
+  </si>
+  <si>
+    <t>1,53</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +271,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>3,90</t>
-  </si>
-  <si>
-    <t>24,50</t>
-  </si>
-  <si>
-    <t>25,42</t>
-  </si>
-  <si>
-    <t>25,49</t>
-  </si>
-  <si>
-    <t>4,43</t>
+    <t>26,03</t>
+  </si>
+  <si>
+    <t>18,24</t>
+  </si>
+  <si>
+    <t>16,56</t>
+  </si>
+  <si>
+    <t>5,60</t>
+  </si>
+  <si>
+    <t>25,76</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,34 +337,40 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
     <t>Julia</t>
   </si>
   <si>
-    <t>Król</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Wojciechowski</t>
+    <t>Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Szymański</t>
   </si>
   <si>
     <t>Górska</t>
   </si>
   <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Sadowska</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -403,121 +406,121 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Maja Bednarska</t>
-  </si>
-  <si>
-    <t>14.08.1984</t>
-  </si>
-  <si>
-    <t>8 320,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Grabowski</t>
-  </si>
-  <si>
-    <t>08.03.1989</t>
-  </si>
-  <si>
-    <t>12 396,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Kubiak</t>
-  </si>
-  <si>
-    <t>15.05.1996</t>
-  </si>
-  <si>
-    <t>5 036,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Bednarska</t>
-  </si>
-  <si>
-    <t>09.01.1978</t>
-  </si>
-  <si>
-    <t>13 245,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Lis</t>
-  </si>
-  <si>
-    <t>02.11.2000</t>
-  </si>
-  <si>
-    <t>6 328,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Wilk</t>
-  </si>
-  <si>
-    <t>23.07.1991</t>
-  </si>
-  <si>
-    <t>10 416,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Górska</t>
-  </si>
-  <si>
-    <t>09.10.1976</t>
-  </si>
-  <si>
-    <t>3 739,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Wilk</t>
-  </si>
-  <si>
-    <t>27.04.1990</t>
-  </si>
-  <si>
-    <t>9 190,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Wójcik</t>
-  </si>
-  <si>
-    <t>15.06.1998</t>
-  </si>
-  <si>
-    <t>11 344,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Woźniak</t>
-  </si>
-  <si>
-    <t>22.11.2001</t>
-  </si>
-  <si>
-    <t>13 018,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Mazur</t>
-  </si>
-  <si>
-    <t>22.06.1988</t>
-  </si>
-  <si>
-    <t>14 155,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Piotrowski</t>
-  </si>
-  <si>
-    <t>01.01.2000</t>
-  </si>
-  <si>
-    <t>13 466,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Kowalczyk</t>
-  </si>
-  <si>
-    <t>06.10.1990</t>
-  </si>
-  <si>
-    <t>2 587,00 zł</t>
+    <t>Wojciech Szymański</t>
+  </si>
+  <si>
+    <t>13.10.1985</t>
+  </si>
+  <si>
+    <t>6 005,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalczyk</t>
+  </si>
+  <si>
+    <t>14.09.1988</t>
+  </si>
+  <si>
+    <t>8 899,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Wiśniewski</t>
+  </si>
+  <si>
+    <t>06.03.1990</t>
+  </si>
+  <si>
+    <t>3 505,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Bednarska</t>
+  </si>
+  <si>
+    <t>18.07.1995</t>
+  </si>
+  <si>
+    <t>13 386,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Wilk</t>
+  </si>
+  <si>
+    <t>10.12.2002</t>
+  </si>
+  <si>
+    <t>9 285,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Jankowski</t>
+  </si>
+  <si>
+    <t>25.08.1987</t>
+  </si>
+  <si>
+    <t>13 223,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Bednarska</t>
+  </si>
+  <si>
+    <t>28.10.1998</t>
+  </si>
+  <si>
+    <t>12 529,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Kowalski</t>
+  </si>
+  <si>
+    <t>08.08.2002</t>
+  </si>
+  <si>
+    <t>14 419,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Kubiak</t>
+  </si>
+  <si>
+    <t>12.11.1999</t>
+  </si>
+  <si>
+    <t>11 102,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Lewandowski</t>
+  </si>
+  <si>
+    <t>25.03.1975</t>
+  </si>
+  <si>
+    <t>3 549,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Krawczyk</t>
+  </si>
+  <si>
+    <t>26.06.1992</t>
+  </si>
+  <si>
+    <t>10 176,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Maciejewska</t>
+  </si>
+  <si>
+    <t>05.02.1988</t>
+  </si>
+  <si>
+    <t>13 889,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Jaworska</t>
+  </si>
+  <si>
+    <t>17.12.1983</t>
+  </si>
+  <si>
+    <t>9 662,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -589,280 +592,328 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>507,00 zł</t>
-  </si>
-  <si>
-    <t>624,00 zł</t>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>642,00 zł</t>
+  </si>
+  <si>
+    <t>713,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 242,00 zł</t>
+  </si>
+  <si>
+    <t>1 664,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 404,00 zł</t>
+  </si>
+  <si>
+    <t>1 895,00 zł</t>
   </si>
   <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>888,00 zł</t>
+  </si>
+  <si>
+    <t>1 074,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 366,00 zł</t>
+  </si>
+  <si>
+    <t>1 503,00 zł</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>788,00 zł</t>
+  </si>
+  <si>
+    <t>1 024,00 zł</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 405,00 zł</t>
+  </si>
+  <si>
+    <t>1 686,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>887,00 zł</t>
+  </si>
+  <si>
+    <t>1 073,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 433,00 zł</t>
+  </si>
+  <si>
+    <t>1 705,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 116,00 zł</t>
+  </si>
+  <si>
+    <t>1 451,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>1 004,00 zł</t>
+  </si>
+  <si>
+    <t>1 225,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 413,00 zł</t>
+  </si>
+  <si>
+    <t>1 639,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 274,00 zł</t>
+  </si>
+  <si>
+    <t>1 758,00 zł</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>584,00 zł</t>
+  </si>
+  <si>
+    <t>818,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 327,00 zł</t>
+  </si>
+  <si>
+    <t>1 858,00 zł</t>
+  </si>
+  <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
+    <t>1 267,00 zł</t>
+  </si>
+  <si>
+    <t>1 520,00 zł</t>
+  </si>
+  <si>
+    <t>734,00 zł</t>
+  </si>
+  <si>
+    <t>940,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 427,00 zł</t>
+  </si>
+  <si>
+    <t>1 827,00 zł</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>779,00 zł</t>
+  </si>
+  <si>
+    <t>943,00 zł</t>
+  </si>
+  <si>
+    <t>1 130,00 zł</t>
+  </si>
+  <si>
+    <t>1 537,00 zł</t>
+  </si>
+  <si>
+    <t>615,00 zł</t>
+  </si>
+  <si>
+    <t>726,00 zł</t>
+  </si>
+  <si>
+    <t>1 886,00 zł</t>
+  </si>
+  <si>
+    <t>1 069,00 zł</t>
+  </si>
+  <si>
+    <t>1 358,00 zł</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 330,00 zł</t>
+  </si>
+  <si>
+    <t>1 835,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>1 220,00 zł</t>
+  </si>
+  <si>
+    <t>1 574,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>1 409,00 zł</t>
+  </si>
+  <si>
+    <t>1 254,00 zł</t>
+  </si>
+  <si>
+    <t>1 693,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 050,00 zł</t>
+  </si>
+  <si>
+    <t>1 313,00 zł</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>948,00 zł</t>
   </si>
   <si>
     <t>1 119,00 zł</t>
-  </si>
-  <si>
-    <t>1 399,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 280,00 zł</t>
-  </si>
-  <si>
-    <t>1 792,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 065,00 zł</t>
-  </si>
-  <si>
-    <t>1 491,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 959,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 085,00 zł</t>
-  </si>
-  <si>
-    <t>1 248,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 168,00 zł</t>
-  </si>
-  <si>
-    <t>1 565,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>681,00 zł</t>
-  </si>
-  <si>
-    <t>851,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 075,00 zł</t>
-  </si>
-  <si>
-    <t>1 387,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 156,00 zł</t>
-  </si>
-  <si>
-    <t>1 341,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 312,00 zł</t>
-  </si>
-  <si>
-    <t>1 653,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>1 215,00 zł</t>
-  </si>
-  <si>
-    <t>1 665,00 zł</t>
-  </si>
-  <si>
-    <t>1 445,00 zł</t>
-  </si>
-  <si>
-    <t>1 590,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>1 364,00 zł</t>
-  </si>
-  <si>
-    <t>1 664,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 430,00 zł</t>
-  </si>
-  <si>
-    <t>1 702,00 zł</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>723,00 zł</t>
-  </si>
-  <si>
-    <t>853,00 zł</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 406,00 zł</t>
-  </si>
-  <si>
-    <t>1 589,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>1 223,00 zł</t>
-  </si>
-  <si>
-    <t>1 663,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 443,00 zł</t>
-  </si>
-  <si>
-    <t>1 616,00 zł</t>
-  </si>
-  <si>
-    <t>1 416,00 zł</t>
-  </si>
-  <si>
-    <t>1 657,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>867,00 zł</t>
-  </si>
-  <si>
-    <t>1 040,00 zł</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>523,00 zł</t>
-  </si>
-  <si>
-    <t>711,00 zł</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 279,00 zł</t>
-  </si>
-  <si>
-    <t>1 778,00 zł</t>
-  </si>
-  <si>
-    <t>1 422,00 zł</t>
-  </si>
-  <si>
-    <t>1 962,00 zł</t>
-  </si>
-  <si>
-    <t>1 306,00 zł</t>
-  </si>
-  <si>
-    <t>1 606,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1425,13 +1476,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1440,19 +1491,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>5</v>
       </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1461,19 +1512,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1482,19 +1533,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
         <v>2</v>
       </c>
-      <c r="D20" s="3">
-        <v>6</v>
-      </c>
       <c r="E20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1503,19 +1554,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="C21" s="3">
-        <v>6</v>
-      </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1527,16 +1578,16 @@
         <v>2</v>
       </c>
       <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
         <v>6</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
-        <v>4</v>
-      </c>
       <c r="F22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1545,19 +1596,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
         <v>6</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>6</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1566,19 +1617,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
         <v>5</v>
       </c>
-      <c r="C24" s="3">
-        <v>4</v>
-      </c>
       <c r="D24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1587,19 +1638,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
         <v>5</v>
       </c>
-      <c r="C25" s="3">
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
         <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3">
-        <v>6</v>
-      </c>
-      <c r="F25" s="3">
-        <v>4</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1608,19 +1659,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1632,16 +1683,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
         <v>6</v>
       </c>
-      <c r="E27" s="3">
-        <v>5</v>
-      </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1650,19 +1701,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
         <v>4</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3">
-        <v>4</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1784,7 +1835,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1799,7 +1850,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1814,7 +1865,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1829,7 +1880,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1856,10 +1907,10 @@
         <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1868,7 +1919,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -1903,7 +1954,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1928,27 +1979,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1970,61 +2021,61 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C15" s="3">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C16" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C17" s="3">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C18" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="C19" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2032,7 +2083,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -2044,7 +2095,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2066,61 +2117,61 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="3">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2128,7 +2179,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -2140,7 +2191,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2162,73 +2213,73 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="3">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="3">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2250,10 +2301,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A20" sqref="A20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2274,53 +2325,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2332,7 +2383,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2341,43 +2392,43 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
       <c r="H12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2385,31 +2436,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3">
+        <v>6</v>
+      </c>
+      <c r="J13" s="3">
         <v>3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>4</v>
-      </c>
-      <c r="J13" s="3">
-        <v>5</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2417,31 +2468,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
         <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2449,31 +2500,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3">
         <v>5</v>
       </c>
       <c r="J15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2481,31 +2532,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
         <v>6</v>
       </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="I16" s="3">
         <v>6</v>
       </c>
-      <c r="H16" s="3">
-        <v>4</v>
-      </c>
-      <c r="I16" s="3">
-        <v>4</v>
-      </c>
       <c r="J16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2522,41 +2573,57 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="3">
-        <v>6</v>
-      </c>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="11" t="s">
@@ -2574,11 +2641,27 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
     </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2606,7 +2689,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2616,210 +2699,210 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2837,10 +2920,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A44" sqref="A44:B48"/>
+      <selection activeCell="A48" sqref="A48:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2856,7 +2939,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2866,75 +2949,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2942,22 +3025,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2965,22 +3048,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2988,22 +3071,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3011,22 +3094,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3034,22 +3117,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3057,22 +3140,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3080,22 +3163,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3103,22 +3186,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3126,22 +3209,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3149,22 +3232,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3172,22 +3255,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3195,22 +3278,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3218,22 +3301,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3241,22 +3324,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3264,22 +3347,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3287,22 +3370,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3310,22 +3393,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3333,22 +3416,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3356,22 +3439,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3379,22 +3462,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3402,22 +3485,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3425,22 +3508,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3448,19 +3531,19 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>235</v>
@@ -3471,22 +3554,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3494,67 +3577,159 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>219</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>166</v>
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>281</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>282</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>283</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>170</v>
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>284</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>170</v>
+      <c r="A47" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>302</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_022.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>ZESTAW ZADAŃ NR 22 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 22 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,33 +148,18 @@
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,40</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>20,10</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,10</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,90</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>4,40</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
@@ -217,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>1,98</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>1,80</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>11,09</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>1,75</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>2,49</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>22,44</t>
-  </si>
-  <si>
-    <t>28,55</t>
-  </si>
-  <si>
-    <t>9,66</t>
-  </si>
-  <si>
-    <t>19,25</t>
-  </si>
-  <si>
-    <t>1,53</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>26,03</t>
-  </si>
-  <si>
-    <t>18,24</t>
-  </si>
-  <si>
-    <t>16,56</t>
-  </si>
-  <si>
-    <t>5,60</t>
-  </si>
-  <si>
-    <t>25,76</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -304,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -412,117 +337,78 @@
     <t>13.10.1985</t>
   </si>
   <si>
-    <t>6 005,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalczyk</t>
   </si>
   <si>
     <t>14.09.1988</t>
   </si>
   <si>
-    <t>8 899,00 zł</t>
-  </si>
-  <si>
     <t>Jan Wiśniewski</t>
   </si>
   <si>
     <t>06.03.1990</t>
   </si>
   <si>
-    <t>3 505,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Bednarska</t>
   </si>
   <si>
     <t>18.07.1995</t>
   </si>
   <si>
-    <t>13 386,00 zł</t>
-  </si>
-  <si>
     <t>Maja Wilk</t>
   </si>
   <si>
     <t>10.12.2002</t>
   </si>
   <si>
-    <t>9 285,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Jankowski</t>
   </si>
   <si>
     <t>25.08.1987</t>
   </si>
   <si>
-    <t>13 223,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Bednarska</t>
   </si>
   <si>
     <t>28.10.1998</t>
   </si>
   <si>
-    <t>12 529,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Kowalski</t>
   </si>
   <si>
     <t>08.08.2002</t>
   </si>
   <si>
-    <t>14 419,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Kubiak</t>
   </si>
   <si>
     <t>12.11.1999</t>
   </si>
   <si>
-    <t>11 102,00 zł</t>
-  </si>
-  <si>
     <t>Jan Lewandowski</t>
   </si>
   <si>
     <t>25.03.1975</t>
   </si>
   <si>
-    <t>3 549,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Krawczyk</t>
   </si>
   <si>
     <t>26.06.1992</t>
   </si>
   <si>
-    <t>10 176,00 zł</t>
-  </si>
-  <si>
     <t>Lena Maciejewska</t>
   </si>
   <si>
     <t>05.02.1988</t>
   </si>
   <si>
-    <t>13 889,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Jaworska</t>
   </si>
   <si>
     <t>17.12.1983</t>
   </si>
   <si>
-    <t>9 662,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -535,9 +421,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -598,12 +481,6 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>642,00 zł</t>
-  </si>
-  <si>
-    <t>713,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -616,12 +493,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 242,00 zł</t>
-  </si>
-  <si>
-    <t>1 664,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -634,12 +505,6 @@
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 404,00 zł</t>
-  </si>
-  <si>
-    <t>1 895,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -649,12 +514,6 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>888,00 zł</t>
-  </si>
-  <si>
-    <t>1 074,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -667,36 +526,18 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 366,00 zł</t>
-  </si>
-  <si>
-    <t>1 503,00 zł</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
   </si>
   <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>788,00 zł</t>
-  </si>
-  <si>
-    <t>1 024,00 zł</t>
-  </si>
-  <si>
     <t>styczeń</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 405,00 zł</t>
-  </si>
-  <si>
-    <t>1 686,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -706,12 +547,6 @@
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>887,00 zł</t>
-  </si>
-  <si>
-    <t>1 073,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -721,12 +556,6 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 433,00 zł</t>
-  </si>
-  <si>
-    <t>1 705,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
@@ -736,36 +565,18 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 116,00 zł</t>
-  </si>
-  <si>
-    <t>1 451,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>1 004,00 zł</t>
-  </si>
-  <si>
-    <t>1 225,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 413,00 zł</t>
-  </si>
-  <si>
-    <t>1 639,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -775,145 +586,49 @@
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 274,00 zł</t>
-  </si>
-  <si>
-    <t>1 758,00 zł</t>
-  </si>
-  <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>584,00 zł</t>
-  </si>
-  <si>
-    <t>818,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 327,00 zł</t>
-  </si>
-  <si>
-    <t>1 858,00 zł</t>
-  </si>
-  <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>1 267,00 zł</t>
-  </si>
-  <si>
-    <t>1 520,00 zł</t>
-  </si>
-  <si>
-    <t>734,00 zł</t>
-  </si>
-  <si>
-    <t>940,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 427,00 zł</t>
-  </si>
-  <si>
-    <t>1 827,00 zł</t>
-  </si>
-  <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>779,00 zł</t>
-  </si>
-  <si>
-    <t>943,00 zł</t>
-  </si>
-  <si>
-    <t>1 130,00 zł</t>
-  </si>
-  <si>
-    <t>1 537,00 zł</t>
-  </si>
-  <si>
-    <t>615,00 zł</t>
-  </si>
-  <si>
-    <t>726,00 zł</t>
-  </si>
-  <si>
-    <t>1 886,00 zł</t>
-  </si>
-  <si>
-    <t>1 069,00 zł</t>
-  </si>
-  <si>
-    <t>1 358,00 zł</t>
-  </si>
-  <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 330,00 zł</t>
-  </si>
-  <si>
-    <t>1 835,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>1 220,00 zł</t>
-  </si>
-  <si>
-    <t>1 574,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>lubelskie</t>
   </si>
   <si>
-    <t>1 409,00 zł</t>
-  </si>
-  <si>
-    <t>1 254,00 zł</t>
-  </si>
-  <si>
-    <t>1 693,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 050,00 zł</t>
-  </si>
-  <si>
-    <t>1 313,00 zł</t>
-  </si>
-  <si>
     <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>948,00 zł</t>
-  </si>
-  <si>
-    <t>1 119,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -935,7 +650,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -992,14 +709,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1010,8 +727,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1042,30 +759,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1368,7 +1086,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1443,25 +1161,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1484,7 +1202,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1505,7 +1223,7 @@
       <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1526,7 +1244,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1547,7 +1265,7 @@
       <c r="F20" s="3">
         <v>4</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1568,7 +1286,7 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1589,7 +1307,7 @@
       <c r="F22" s="3">
         <v>5</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1610,7 +1328,7 @@
       <c r="F23" s="3">
         <v>6</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1631,7 +1349,7 @@
       <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1652,7 +1370,7 @@
       <c r="F25" s="3">
         <v>5</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1673,7 +1391,7 @@
       <c r="F26" s="3">
         <v>6</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1694,7 +1412,7 @@
       <c r="F27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1715,27 +1433,17 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1769,7 +1477,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1789,7 +1497,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1799,29 +1507,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1829,99 +1537,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5.4</v>
       </c>
       <c r="D13" s="3">
         <v>7</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>20.1</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.1</v>
       </c>
       <c r="D15" s="3">
         <v>8</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.9</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4.4</v>
       </c>
       <c r="D17" s="3">
         <v>7</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5.4</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1954,7 +1662,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1979,113 +1687,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>63</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1.98</v>
       </c>
       <c r="C15" s="3">
         <v>33</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1.8</v>
       </c>
       <c r="C16" s="3">
         <v>23</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>11.09</v>
       </c>
       <c r="C17" s="3">
         <v>33</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1.75</v>
       </c>
       <c r="C18" s="3">
         <v>19</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2.49</v>
       </c>
       <c r="C19" s="3">
         <v>10</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2094,94 +1802,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>75</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>22.44</v>
       </c>
       <c r="C24" s="3">
         <v>26</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>28.55</v>
       </c>
       <c r="C25" s="3">
         <v>25</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>9.66</v>
       </c>
       <c r="C26" s="3">
         <v>17</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>19.25</v>
       </c>
       <c r="C27" s="3">
         <v>50</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1.53</v>
       </c>
       <c r="C28" s="3">
         <v>32</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2190,98 +1898,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>82</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>26.030000000000001</v>
       </c>
       <c r="C33" s="3">
         <v>45</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>18.24</v>
       </c>
       <c r="C34" s="3">
         <v>31</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>16.56</v>
       </c>
       <c r="C35" s="3">
         <v>11</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>5.6</v>
       </c>
       <c r="C36" s="3">
         <v>7</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>25.76</v>
       </c>
       <c r="C37" s="3">
         <v>5</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2304,7 +2012,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2324,90 +2032,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>90</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>104</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
@@ -2430,16 +2138,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
@@ -2462,16 +2170,16 @@
       <c r="J13" s="3">
         <v>3</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
@@ -2494,16 +2202,16 @@
       <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -2526,16 +2234,16 @@
       <c r="J15" s="3">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -2558,16 +2266,16 @@
       <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -2590,16 +2298,16 @@
       <c r="J17" s="3">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
@@ -2622,40 +2330,40 @@
       <c r="J18" s="3">
         <v>5</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2688,222 +2396,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>119</v>
+      <c r="A1" s="15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>127</v>
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>104</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6005</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8899</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3505</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13386</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9285</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13223</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="C17" s="7">
+        <v>12529</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C18" s="7">
+        <v>14419</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
+      </c>
+      <c r="C19" s="7">
+        <v>11102</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3549</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10176</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
+      </c>
+      <c r="C22" s="7">
+        <v>13889</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="C23" s="7">
+        <v>9662</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>167</v>
+      <c r="A26" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2938,86 +2640,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>172</v>
+      <c r="A1" s="15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>189</v>
+      <c r="A15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3025,22 +2727,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>193</v>
+        <v>152</v>
+      </c>
+      <c r="D16" s="7">
+        <v>642</v>
+      </c>
+      <c r="E16" s="7">
+        <v>713</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3048,22 +2750,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1242</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1664</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3071,22 +2773,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1404</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1895</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3094,22 +2796,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
+      </c>
+      <c r="D19" s="7">
+        <v>888</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1074</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3117,22 +2819,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1366</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1503</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3140,22 +2842,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
+      </c>
+      <c r="D21" s="7">
+        <v>788</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1024</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3163,22 +2865,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1405</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1686</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3186,22 +2888,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
+      </c>
+      <c r="D23" s="7">
+        <v>887</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1073</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3209,22 +2911,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>234</v>
+        <v>177</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1433</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1705</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3232,22 +2934,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>239</v>
+        <v>180</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1116</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1451</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3255,22 +2957,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>243</v>
+        <v>174</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1004</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1225</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3278,22 +2980,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>247</v>
+        <v>184</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1413</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1639</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3301,22 +3003,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1274</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1758</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3324,22 +3026,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>255</v>
+        <v>188</v>
+      </c>
+      <c r="D29" s="7">
+        <v>584</v>
+      </c>
+      <c r="E29" s="7">
+        <v>818</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3347,22 +3049,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>259</v>
+        <v>190</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1327</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1858</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3370,22 +3072,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>262</v>
+        <v>169</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1267</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1520</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3393,22 +3095,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>264</v>
+        <v>167</v>
+      </c>
+      <c r="D32" s="7">
+        <v>734</v>
+      </c>
+      <c r="E32" s="7">
+        <v>940</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3416,22 +3118,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>268</v>
+        <v>193</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1427</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1827</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3439,22 +3141,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>271</v>
+        <v>194</v>
+      </c>
+      <c r="D34" s="7">
+        <v>779</v>
+      </c>
+      <c r="E34" s="7">
+        <v>943</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3462,22 +3164,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>273</v>
+        <v>167</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1130</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1537</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3485,22 +3187,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>275</v>
+        <v>160</v>
+      </c>
+      <c r="D36" s="7">
+        <v>615</v>
+      </c>
+      <c r="E36" s="7">
+        <v>726</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3508,22 +3210,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>276</v>
+        <v>171</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1451</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1886</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3531,22 +3233,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>278</v>
+        <v>194</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1069</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1358</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3554,22 +3256,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>281</v>
+        <v>195</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1330</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1835</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3577,22 +3279,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>285</v>
+        <v>190</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1220</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1574</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3600,22 +3302,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>288</v>
+        <v>174</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1225</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1409</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3623,22 +3325,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>290</v>
+        <v>152</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1254</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1693</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3646,22 +3348,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>294</v>
+        <v>201</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1050</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1313</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3669,68 +3371,58 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>297</v>
+        <v>202</v>
+      </c>
+      <c r="D44" s="7">
+        <v>948</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1119</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>167</v>
+      <c r="A47" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>298</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>299</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>300</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>301</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>302</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>171</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B52" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_022.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_022.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>ZESTAW ZADAŃ NR 22 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Anna Maciejewska</t>
-  </si>
-  <si>
-    <t>Julia Bednarska</t>
-  </si>
-  <si>
-    <t>Emilia Rogalska</t>
-  </si>
-  <si>
-    <t>Oliwia Sadowska</t>
-  </si>
-  <si>
-    <t>Jakub Kamiński</t>
+    <t>Hanna Lis</t>
+  </si>
+  <si>
+    <t>Maja Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Oliwia Maciejewska</t>
+  </si>
+  <si>
+    <t>Adam Kamiński</t>
+  </si>
+  <si>
+    <t>Lena Maciejewska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 22 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,45 +266,39 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Hanna</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Piotrowski</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Szymański</t>
   </si>
   <si>
     <t>Piekarska</t>
   </si>
   <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Szymański</t>
-  </si>
-  <si>
-    <t>Górska</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
-    <t>Sadowska</t>
-  </si>
-  <si>
     <t>Średnia przedmiotu:</t>
   </si>
   <si>
@@ -331,82 +332,49 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Wojciech Szymański</t>
-  </si>
-  <si>
-    <t>13.10.1985</t>
-  </si>
-  <si>
-    <t>Jan Kowalczyk</t>
-  </si>
-  <si>
-    <t>14.09.1988</t>
-  </si>
-  <si>
-    <t>Jan Wiśniewski</t>
-  </si>
-  <si>
-    <t>06.03.1990</t>
-  </si>
-  <si>
-    <t>Hanna Bednarska</t>
-  </si>
-  <si>
-    <t>18.07.1995</t>
-  </si>
-  <si>
-    <t>Maja Wilk</t>
-  </si>
-  <si>
-    <t>10.12.2002</t>
-  </si>
-  <si>
-    <t>Kacper Jankowski</t>
-  </si>
-  <si>
-    <t>25.08.1987</t>
-  </si>
-  <si>
-    <t>Amelia Bednarska</t>
-  </si>
-  <si>
-    <t>28.10.1998</t>
-  </si>
-  <si>
-    <t>Mikołaj Kowalski</t>
-  </si>
-  <si>
-    <t>08.08.2002</t>
-  </si>
-  <si>
-    <t>Emilia Kubiak</t>
-  </si>
-  <si>
-    <t>12.11.1999</t>
-  </si>
-  <si>
-    <t>Jan Lewandowski</t>
-  </si>
-  <si>
-    <t>25.03.1975</t>
-  </si>
-  <si>
-    <t>Szymon Krawczyk</t>
-  </si>
-  <si>
-    <t>26.06.1992</t>
-  </si>
-  <si>
-    <t>Lena Maciejewska</t>
-  </si>
-  <si>
-    <t>05.02.1988</t>
-  </si>
-  <si>
-    <t>Emilia Jaworska</t>
-  </si>
-  <si>
-    <t>17.12.1983</t>
+    <t>Wojciech Mazur</t>
+  </si>
+  <si>
+    <t>Szymon Jankowski</t>
+  </si>
+  <si>
+    <t>Natalia Wilk</t>
+  </si>
+  <si>
+    <t>Julia Wójcik</t>
+  </si>
+  <si>
+    <t>Anna Malinowska</t>
+  </si>
+  <si>
+    <t>Natalia Zawadzka</t>
+  </si>
+  <si>
+    <t>Zuzanna Bednarska</t>
+  </si>
+  <si>
+    <t>Zuzanna Piekarska</t>
+  </si>
+  <si>
+    <t>Maja Olszewska</t>
+  </si>
+  <si>
+    <t>Amelia Król</t>
+  </si>
+  <si>
+    <t>Adam Lewandowski</t>
+  </si>
+  <si>
+    <t>Julia Król</t>
+  </si>
+  <si>
+    <t>Amelia Sadowska</t>
+  </si>
+  <si>
+    <t>Antoni Mazur</t>
+  </si>
+  <si>
+    <t>Jan Kaczmarek</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -421,7 +389,64 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Oliwia Wójcik</t>
+  </si>
+  <si>
+    <t>Wojciech Kowalski</t>
+  </si>
+  <si>
+    <t>Natalia Sadowska</t>
+  </si>
+  <si>
+    <t>Wojciech Kamiński</t>
+  </si>
+  <si>
+    <t>Filip Szymański</t>
+  </si>
+  <si>
+    <t>Aleksander Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Kubiak</t>
+  </si>
+  <si>
+    <t>Natalia Czarnecka</t>
+  </si>
+  <si>
+    <t>Filip Grabowski</t>
+  </si>
+  <si>
+    <t>Natalia Malinowska</t>
+  </si>
+  <si>
+    <t>Jakub Lewandowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Wójcik</t>
+  </si>
+  <si>
+    <t>Hanna Urbaniak</t>
+  </si>
+  <si>
+    <t>Mikołaj Piotrowski</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -475,160 +500,151 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
     <t>luty</t>
   </si>
   <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>Marcin Zieliński</t>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
     <t>marzec</t>
   </si>
   <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
+    <t>Mysz gamingowa</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -700,7 +716,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,12 +739,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -759,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -770,13 +780,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1083,7 +1092,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1191,16 +1200,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
         <v>4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1209,19 +1218,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1230,19 +1239,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
       </c>
       <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
         <v>6</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1251,19 +1260,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
         <v>5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
       </c>
       <c r="E20" s="3">
         <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1275,16 +1284,16 @@
         <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1296,16 +1305,16 @@
         <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1317,16 +1326,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="3">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3">
         <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>6</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1335,19 +1344,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
         <v>6</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
         <v>5</v>
       </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1359,16 +1368,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3">
         <v>6</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>5</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>5</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1377,19 +1386,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
         <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1398,7 +1407,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
         <v>4</v>
@@ -1407,10 +1416,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1419,19 +1428,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
         <v>5</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1444,6 +1453,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1477,7 +1492,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1497,7 +1512,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1507,29 +1522,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1537,99 +1552,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>5.4</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.5</v>
       </c>
       <c r="D13" s="3">
-        <v>7</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>20.1</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5.2</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.1</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.5</v>
       </c>
       <c r="D15" s="3">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1.9</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6.7</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>4.4</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5.4</v>
       </c>
       <c r="D17" s="3">
-        <v>7</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5.4</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>18.9</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1646,10 +1661,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1662,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1687,27 +1702,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1715,85 +1730,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1.98</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1.86</v>
       </c>
       <c r="C15" s="3">
-        <v>33</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1.8</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>18.6</v>
       </c>
       <c r="C16" s="3">
-        <v>23</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>11.09</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>7.73</v>
       </c>
       <c r="C17" s="3">
-        <v>33</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1.75</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>22.7</v>
       </c>
       <c r="C18" s="3">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>2.49</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>26.64</v>
       </c>
       <c r="C19" s="3">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1802,8 +1817,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1811,85 +1826,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>22.44</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>17.49</v>
       </c>
       <c r="C24" s="3">
-        <v>26</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>28.55</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>10.050000000000001</v>
       </c>
       <c r="C25" s="3">
-        <v>25</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>9.66</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>26.55</v>
       </c>
       <c r="C26" s="3">
-        <v>17</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>19.25</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>7.28</v>
       </c>
       <c r="C27" s="3">
-        <v>50</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>1.53</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>29.47</v>
       </c>
       <c r="C28" s="3">
         <v>32</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1898,8 +1913,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1907,89 +1922,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>26.030000000000001</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>12.36</v>
       </c>
       <c r="C33" s="3">
-        <v>45</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>18.24</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>6.81</v>
       </c>
       <c r="C34" s="3">
-        <v>31</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>16.56</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>28.95</v>
       </c>
       <c r="C35" s="3">
-        <v>11</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>5.6</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>28.7</v>
       </c>
       <c r="C36" s="3">
-        <v>7</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>25.76</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>17.53</v>
       </c>
       <c r="C37" s="3">
-        <v>5</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2009,10 +2032,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L20"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2032,93 +2055,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -2130,13 +2153,13 @@
         <v>5</v>
       </c>
       <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6</v>
+      </c>
+      <c r="J12" s="3">
         <v>5</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2144,28 +2167,28 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3">
         <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
         <v>3</v>
@@ -2176,22 +2199,22 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
         <v>4</v>
@@ -2200,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2208,28 +2231,28 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
       <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
         <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6</v>
       </c>
       <c r="H15" s="3">
         <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
         <v>3</v>
@@ -2240,31 +2263,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3">
-        <v>4</v>
-      </c>
       <c r="H16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="3">
         <v>6</v>
       </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2272,16 +2295,16 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
@@ -2293,49 +2316,33 @@
         <v>3</v>
       </c>
       <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
         <v>4</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2346,30 +2353,14 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2382,10 +2373,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2396,12 +2387,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2445,167 +2436,189 @@
       <c r="A11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="7">
-        <v>6005</v>
+      <c r="B11" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10555</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="7">
-        <v>8899</v>
+        <v>104</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C12" s="8">
+        <v>12001</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3505</v>
+        <v>105</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3270</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="7">
-        <v>13386</v>
+        <v>106</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C14" s="8">
+        <v>10169</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="7">
-        <v>9285</v>
+        <v>107</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C15" s="8">
+        <v>13191</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="7">
-        <v>13223</v>
+        <v>108</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C16" s="8">
+        <v>9865</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="7">
-        <v>12529</v>
+        <v>109</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3050</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="7">
-        <v>14419</v>
+        <v>110</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C18" s="8">
+        <v>7800</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="7">
-        <v>11102</v>
+        <v>111</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C19" s="8">
+        <v>13190</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3549</v>
+        <v>112</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C20" s="8">
+        <v>14011</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="7">
-        <v>10176</v>
+        <v>113</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C21" s="8">
+        <v>14641</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="7">
-        <v>13889</v>
+        <v>114</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5811</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="7">
-        <v>9662</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C23" s="8">
+        <v>10486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C24" s="8">
+        <v>10117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C25" s="8">
+        <v>14917</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="6"/>
+      <c r="A28" s="16" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2622,10 +2635,221 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A10" sqref="A10:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="3">
+        <v>122</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="3">
+        <v>93</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3">
+        <v>125</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3">
+        <v>200</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="3">
+        <v>134</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="3">
+        <v>102</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3">
+        <v>144</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="3">
+        <v>154</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="3">
+        <v>148</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="3">
+        <v>92</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="3">
+        <v>93</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="3">
+        <v>184</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="3">
+        <v>153</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="3">
+        <v>181</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="3">
+        <v>122</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="3">
+        <v>101</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2640,86 +2864,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>133</v>
+      <c r="A1" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2727,22 +2951,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="7">
-        <v>642</v>
-      </c>
-      <c r="E16" s="7">
-        <v>713</v>
+        <v>160</v>
+      </c>
+      <c r="D16" s="8">
+        <v>957</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1177</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2750,22 +2974,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1242</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1664</v>
+        <v>163</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1407</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1801</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2773,22 +2997,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1404</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1895</v>
+        <v>167</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1083</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1191</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2796,22 +3020,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="7">
-        <v>888</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1074</v>
+        <v>167</v>
+      </c>
+      <c r="D19" s="8">
+        <v>600</v>
+      </c>
+      <c r="E19" s="8">
+        <v>726</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2819,22 +3043,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1366</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1503</v>
+        <v>172</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1084</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1431</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2842,22 +3066,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1037</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1193</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="D21" s="7">
-        <v>788</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1024</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2865,22 +3089,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1405</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1686</v>
+        <v>178</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1063</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1382</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2888,22 +3112,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="7">
-        <v>887</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1073</v>
+        <v>180</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1004</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1375</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2911,22 +3135,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1433</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1705</v>
+        <v>180</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1038</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1235</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2934,22 +3158,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1116</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1451</v>
+        <v>184</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1015</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1279</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2957,22 +3181,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1271</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1538</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1004</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1225</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="G26" s="3" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2980,22 +3204,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1413</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1639</v>
+        <v>187</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1078</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1401</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3003,22 +3227,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1274</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1758</v>
+        <v>178</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1412</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1596</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3026,22 +3250,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="7">
-        <v>584</v>
-      </c>
-      <c r="E29" s="7">
-        <v>818</v>
+        <v>180</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1498</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2022</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3049,22 +3273,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1327</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1858</v>
+        <v>191</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1136</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1431</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3072,22 +3296,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1267</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1520</v>
+        <v>172</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1103</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1246</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3095,22 +3319,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="7">
-        <v>734</v>
-      </c>
-      <c r="E32" s="7">
-        <v>940</v>
+        <v>195</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1477</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1699</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3118,22 +3342,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1427</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1827</v>
+        <v>187</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1198</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1641</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3141,22 +3365,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="7">
-        <v>779</v>
-      </c>
-      <c r="E34" s="7">
-        <v>943</v>
+        <v>200</v>
+      </c>
+      <c r="D34" s="8">
+        <v>637</v>
+      </c>
+      <c r="E34" s="8">
+        <v>841</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3167,19 +3391,19 @@
         <v>159</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1130</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1537</v>
+        <v>201</v>
+      </c>
+      <c r="D35" s="8">
+        <v>620</v>
+      </c>
+      <c r="E35" s="8">
+        <v>750</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3187,22 +3411,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="7">
-        <v>615</v>
-      </c>
-      <c r="E36" s="7">
-        <v>726</v>
+        <v>202</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1016</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1290</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3210,22 +3434,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1451</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1886</v>
+        <v>204</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1345</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1533</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3233,22 +3457,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1069</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1358</v>
+        <v>195</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1375</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1815</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3256,22 +3480,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1330</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1835</v>
+        <v>202</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1127</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1544</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3279,22 +3503,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1220</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1574</v>
+        <v>206</v>
+      </c>
+      <c r="D40" s="8">
+        <v>858</v>
+      </c>
+      <c r="E40" s="8">
+        <v>961</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>198</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3302,22 +3526,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1225</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1409</v>
+        <v>207</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1066</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1247</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3325,22 +3549,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1254</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1693</v>
+        <v>195</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1060</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1325</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3348,22 +3572,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1050</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1313</v>
+        <v>187</v>
+      </c>
+      <c r="D43" s="8">
+        <v>900</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1161</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3371,58 +3595,81 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" s="7">
-        <v>948</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1119</v>
+        <v>184</v>
+      </c>
+      <c r="D44" s="8">
+        <v>528</v>
+      </c>
+      <c r="E44" s="8">
+        <v>686</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>198</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="17" t="s">
-        <v>129</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1056</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1331</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48" s="6"/>
+      <c r="A48" s="16" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>204</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>205</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>206</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>207</v>
-      </c>
-      <c r="B52" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
